--- a/Resources/Experiencias.xlsx
+++ b/Resources/Experiencias.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\source\repos\Saratyc\Saratyc\Resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B892778E-EE4A-41C1-BCA1-94DA2A7957A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="15">
+  <si>
+    <t>IDAUXILIAR</t>
+  </si>
+  <si>
+    <t>CCAUXILIAR</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA</t>
+  </si>
+  <si>
+    <t>Colostomía</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Glucometría</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Sonda</t>
+  </si>
+  <si>
+    <t>Medicina</t>
+  </si>
+  <si>
+    <t>Drenes</t>
+  </si>
+  <si>
+    <t>Oxigeno</t>
+  </si>
+  <si>
+    <t>Neurológico</t>
+  </si>
+  <si>
+    <t>41796003</t>
+  </si>
+  <si>
+    <t>51637213</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +386,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D55" sqref="D53:D55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4790597</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>4790597</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4790597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1015396096</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1015396096</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1015396096</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1019014407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1019014407</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1019014407</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1069078218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1069078218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1069078218</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1071629228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1071629228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1071629228</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1116794759</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1116794759</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1116794759</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>20964966</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>20964966</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>20964966</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>23415801</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>23415801</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>23415801</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>24212282</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>24212282</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>24212282</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>25874713</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>25874713</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>25874713</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>28689301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>28689301</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>28689301</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>30333182</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>30333182</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>30333182</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>30724286</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>30724286</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>30724286</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>34941725</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>34941725</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>34941725</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>39722971</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>39722971</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>39722971</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>16</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>